--- a/BalanceSheet/CMCSA_bal.xlsx
+++ b/BalanceSheet/CMCSA_bal.xlsx
@@ -4678,7 +4678,7 @@
         <v>100180000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>104037000000.0</v>
+        <v>101883000000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>102544000000.0</v>
@@ -4805,7 +4805,7 @@
         <v>108743000000.0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>109579000000.0</v>
+        <v>107383000000.0</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>106051000000.0</v>
